--- a/testid_2_num.xlsx
+++ b/testid_2_num.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aston/Downloads/91APP_DataSet_2023/BehaviorData/Data_eCommerce_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2780A54C-2311-DF44-BB8F-7B06B1A76733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED65065-5B06-4148-BA30-24076A195D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="26460" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A752" workbookViewId="0">
-      <selection activeCell="A770" sqref="A770:N1153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B753" sqref="B2:B753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
